--- a/PruebasOpenMP/Libro2.xlsx
+++ b/PruebasOpenMP/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\AC\PruebasOpenMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7F3023-AAEC-4DC3-A0D5-56FE9D1670CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C72BE7-F838-48DA-BA96-5F03D071D76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF70700B-E3FF-447B-A014-7A17B3B7B667}"/>
   </bookViews>
@@ -3378,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FFAB41-54BE-41E9-A6F4-D8B6CCF87427}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
